--- a/2022/Realme/AUGUST/06.08.2022/realme Bank Statement Aug-20222.xlsx
+++ b/2022/Realme/AUGUST/06.08.2022/realme Bank Statement Aug-20222.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -320,19 +320,10 @@
     <t>N=Zilani Mobile 2</t>
   </si>
   <si>
-    <t>Harun Bhai</t>
-  </si>
-  <si>
     <t>26.07.2022</t>
   </si>
   <si>
     <t xml:space="preserve">Rofiqul </t>
-  </si>
-  <si>
-    <t>28.07.2022</t>
-  </si>
-  <si>
-    <t>Bariola</t>
   </si>
   <si>
     <t>Usha Electronics</t>
@@ -2419,12 +2410,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2437,38 +2461,17 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2521,17 +2524,8 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2576,9 +2570,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3169,7 +3160,7 @@
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="224" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" s="224"/>
       <c r="D3" s="224"/>
@@ -3237,7 +3228,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="19">
         <v>510000</v>
@@ -3258,7 +3249,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="15"/>
       <c r="B9" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="19">
         <v>2000000</v>
@@ -3271,7 +3262,7 @@
         <v>19807</v>
       </c>
       <c r="F9" s="212" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3281,7 +3272,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="15"/>
       <c r="B10" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="22">
         <v>0</v>
@@ -3302,7 +3293,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="19">
         <v>400000</v>
@@ -3323,7 +3314,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C12" s="19">
         <v>1080000</v>
@@ -3344,7 +3335,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="15"/>
       <c r="B13" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="19">
         <v>0</v>
@@ -3977,67 +3968,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="233"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="234" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="235"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="236"/>
+      <c r="A3" s="228" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="230"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4046,52 +4037,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="226" t="s">
+      <c r="C4" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="226" t="s">
+      <c r="D4" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="226" t="s">
+      <c r="E4" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="226" t="s">
+      <c r="F4" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="226" t="s">
+      <c r="G4" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="226" t="s">
+      <c r="H4" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="226" t="s">
+      <c r="I4" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="226" t="s">
+      <c r="J4" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="226" t="s">
+      <c r="K4" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="226" t="s">
+      <c r="L4" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="226" t="s">
+      <c r="M4" s="235" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="230" t="s">
+      <c r="N4" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="228" t="s">
+      <c r="O4" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="237" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="61" t="s">
@@ -4104,22 +4095,22 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="238"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="227"/>
-      <c r="M5" s="227"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="229"/>
-      <c r="P5" s="242"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
+      <c r="M5" s="236"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="240"/>
+      <c r="P5" s="238"/>
       <c r="Q5" s="66" t="s">
         <v>30</v>
       </c>
@@ -4132,7 +4123,7 @@
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1">
       <c r="A6" s="70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
@@ -4168,7 +4159,7 @@
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1">
       <c r="A7" s="70" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="71">
         <v>500</v>
@@ -4210,7 +4201,7 @@
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1">
       <c r="A8" s="70" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="71"/>
@@ -4248,7 +4239,7 @@
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1">
       <c r="A9" s="70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="78"/>
       <c r="C9" s="71"/>
@@ -4284,7 +4275,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1">
       <c r="A10" s="70" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="78">
         <v>500</v>
@@ -7055,6 +7046,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7071,9 +7065,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7085,8 +7076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE230"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7110,14 +7101,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="249"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="253"/>
       <c r="H1" s="38"/>
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
@@ -7170,14 +7161,14 @@
       <c r="BE1" s="113"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="254" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="252"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="256"/>
       <c r="H2" s="38"/>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
@@ -7230,14 +7221,14 @@
       <c r="BE2" s="113"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="257" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="259"/>
       <c r="H3" s="38"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
@@ -8976,12 +8967,12 @@
       <c r="A31" s="175"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39">
-        <v>-993695</v>
+        <v>-978695</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="176">
         <f t="shared" si="0"/>
-        <v>-993695</v>
+        <v>-978695</v>
       </c>
       <c r="F31" s="181"/>
       <c r="G31" s="50"/>
@@ -9110,11 +9101,11 @@
       <c r="D33" s="186"/>
       <c r="E33" s="187">
         <f>SUM(E5:E32)</f>
-        <v>-993695</v>
+        <v>-978695</v>
       </c>
       <c r="F33" s="188">
         <f>B33-E33</f>
-        <v>993695</v>
+        <v>978695</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="38"/>
@@ -9228,13 +9219,13 @@
       <c r="BE34" s="113"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="257" t="s">
+      <c r="A35" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="258"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258"/>
-      <c r="E35" s="259"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="262"/>
+      <c r="D35" s="262"/>
+      <c r="E35" s="263"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9289,12 +9280,12 @@
       <c r="BE35" s="113"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="245" t="s">
+      <c r="A36" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="256"/>
-      <c r="C36" s="256"/>
-      <c r="D36" s="246"/>
+      <c r="B36" s="260"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="131">
         <f>F33-C119</f>
         <v>0</v>
@@ -9354,16 +9345,16 @@
     </row>
     <row r="37" spans="1:57" ht="14.25">
       <c r="A37" s="169" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B37" s="169" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C37" s="170">
-        <v>15000</v>
+        <v>4460</v>
       </c>
       <c r="D37" s="216" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
@@ -9421,25 +9412,25 @@
     </row>
     <row r="38" spans="1:57" ht="14.25">
       <c r="A38" s="165" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B38" s="165" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="166">
-        <v>4460</v>
-      </c>
-      <c r="D38" s="167" t="s">
-        <v>65</v>
+        <v>35000</v>
+      </c>
+      <c r="D38" s="168" t="s">
+        <v>97</v>
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="260" t="s">
+      <c r="G38" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="260"/>
-      <c r="I38" s="260"/>
-      <c r="J38" s="260"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="243"/>
+      <c r="J38" s="243"/>
       <c r="K38" s="113"/>
       <c r="L38" s="113"/>
       <c r="M38" s="113"/>
@@ -9490,16 +9481,16 @@
     </row>
     <row r="39" spans="1:57" ht="14.25">
       <c r="A39" s="165" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="165" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="166">
-        <v>35000</v>
+        <v>270000</v>
       </c>
       <c r="D39" s="168" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
@@ -9557,24 +9548,24 @@
     </row>
     <row r="40" spans="1:57" ht="14.25">
       <c r="A40" s="165" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B40" s="165" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C40" s="166">
-        <v>270000</v>
-      </c>
-      <c r="D40" s="168" t="s">
-        <v>102</v>
+        <v>500</v>
+      </c>
+      <c r="D40" s="167" t="s">
+        <v>86</v>
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="262" t="s">
+      <c r="G40" s="245" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="262"/>
-      <c r="I40" s="262"/>
+      <c r="H40" s="245"/>
+      <c r="I40" s="245"/>
       <c r="J40" s="147">
         <v>3000</v>
       </c>
@@ -9628,24 +9619,24 @@
     </row>
     <row r="41" spans="1:57" ht="14.25">
       <c r="A41" s="165" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B41" s="165" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="166">
+        <v>107720</v>
+      </c>
+      <c r="D41" s="172" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="166">
-        <v>500</v>
-      </c>
-      <c r="D41" s="167" t="s">
-        <v>87</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="42"/>
-      <c r="G41" s="263" t="s">
+      <c r="G41" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="263"/>
-      <c r="I41" s="263"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="246"/>
       <c r="J41" s="147">
         <v>1800</v>
       </c>
@@ -9699,23 +9690,23 @@
     </row>
     <row r="42" spans="1:57" ht="14.25">
       <c r="A42" s="165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="165" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C42" s="166">
-        <v>107720</v>
-      </c>
-      <c r="D42" s="172" t="s">
-        <v>101</v>
+        <v>295695</v>
+      </c>
+      <c r="D42" s="167" t="s">
+        <v>99</v>
       </c>
       <c r="F42" s="42"/>
-      <c r="G42" s="263" t="s">
+      <c r="G42" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="263"/>
-      <c r="I42" s="263"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="246"/>
       <c r="J42" s="147">
         <v>1500</v>
       </c>
@@ -9769,26 +9760,26 @@
     </row>
     <row r="43" spans="1:57" ht="14.25">
       <c r="A43" s="165" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B43" s="165" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="166">
-        <v>295695</v>
-      </c>
-      <c r="D43" s="167" t="s">
-        <v>102</v>
+        <v>14590</v>
+      </c>
+      <c r="D43" s="168" t="s">
+        <v>99</v>
       </c>
       <c r="E43" s="42" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="113"/>
-      <c r="G43" s="261" t="s">
+      <c r="G43" s="244" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="261"/>
-      <c r="I43" s="261"/>
+      <c r="H43" s="244"/>
+      <c r="I43" s="244"/>
       <c r="J43" s="211">
         <f>SUM(J40:J42)</f>
         <v>6300</v>
@@ -9835,17 +9826,17 @@
       <c r="AX43" s="113"/>
     </row>
     <row r="44" spans="1:57" ht="14.25">
-      <c r="A44" s="165" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="165" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="166">
-        <v>14590</v>
-      </c>
-      <c r="D44" s="168" t="s">
-        <v>102</v>
+      <c r="A44" s="218" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="218" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="219">
+        <v>24000</v>
+      </c>
+      <c r="D44" s="220" t="s">
+        <v>86</v>
       </c>
       <c r="E44" s="41"/>
       <c r="G44" s="113"/>
@@ -9894,17 +9885,17 @@
       <c r="AX44" s="113"/>
     </row>
     <row r="45" spans="1:57" ht="14.25">
-      <c r="A45" s="218" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="218" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="219">
-        <v>24000</v>
-      </c>
-      <c r="D45" s="220" t="s">
-        <v>87</v>
+      <c r="A45" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="165" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="166">
+        <v>34990</v>
+      </c>
+      <c r="D45" s="168" t="s">
+        <v>69</v>
       </c>
       <c r="E45" s="41"/>
       <c r="G45" s="113"/>
@@ -9954,16 +9945,14 @@
     </row>
     <row r="46" spans="1:57" ht="14.25">
       <c r="A46" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="165" t="s">
-        <v>80</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B46" s="165"/>
       <c r="C46" s="166">
-        <v>34990</v>
-      </c>
-      <c r="D46" s="168" t="s">
-        <v>69</v>
+        <v>81770</v>
+      </c>
+      <c r="D46" s="167" t="s">
+        <v>97</v>
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="189"/>
@@ -10014,14 +10003,16 @@
     </row>
     <row r="47" spans="1:57" ht="14.25">
       <c r="A47" s="165" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="165"/>
+        <v>67</v>
+      </c>
+      <c r="B47" s="165" t="s">
+        <v>80</v>
+      </c>
       <c r="C47" s="166">
-        <v>81770</v>
+        <v>34990</v>
       </c>
       <c r="D47" s="167" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="41"/>
       <c r="G47" s="113"/>
@@ -10071,16 +10062,16 @@
     </row>
     <row r="48" spans="1:57" ht="14.25">
       <c r="A48" s="165" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B48" s="165" t="s">
         <v>80</v>
       </c>
       <c r="C48" s="166">
-        <v>34990</v>
+        <v>74980</v>
       </c>
       <c r="D48" s="167" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E48" s="41"/>
       <c r="G48" s="113"/>
@@ -10129,18 +10120,10 @@
       <c r="AX48" s="113"/>
     </row>
     <row r="49" spans="1:50" ht="14.25">
-      <c r="A49" s="165" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="166">
-        <v>74980</v>
-      </c>
-      <c r="D49" s="167" t="s">
-        <v>82</v>
-      </c>
+      <c r="A49" s="165"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="167"/>
       <c r="E49" s="41"/>
       <c r="G49" s="164"/>
       <c r="H49" s="164"/>
@@ -13646,13 +13629,13 @@
       <c r="AX116" s="113"/>
     </row>
     <row r="117" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A117" s="243" t="s">
+      <c r="A117" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="244"/>
+      <c r="B117" s="248"/>
       <c r="C117" s="163">
         <f>SUM(C37:C116)</f>
-        <v>993695</v>
+        <v>978695</v>
       </c>
       <c r="D117" s="162"/>
       <c r="F117" s="113"/>
@@ -13753,13 +13736,13 @@
       <c r="AX118" s="113"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A119" s="245" t="s">
+      <c r="A119" s="249" t="s">
         <v>20</v>
       </c>
-      <c r="B119" s="246"/>
+      <c r="B119" s="250"/>
       <c r="C119" s="130">
         <f>C117</f>
-        <v>993695</v>
+        <v>978695</v>
       </c>
       <c r="D119" s="129"/>
       <c r="F119" s="113"/>
@@ -14500,15 +14483,10 @@
       <c r="G230" s="113"/>
     </row>
   </sheetData>
-  <sortState ref="A38:D50">
+  <sortState ref="A37:D49">
     <sortCondition ref="A37"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A1:F1"/>
@@ -14516,6 +14494,11 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14532,7 +14515,7 @@
   <dimension ref="A1:AB215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E26"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14557,35 +14540,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="266"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="267"/>
       <c r="F1" s="139"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="273" t="s">
+      <c r="A2" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="275"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="276"/>
       <c r="F2" s="139"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="267" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="269"/>
+      <c r="A3" s="268" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="270"/>
       <c r="F3" s="139"/>
       <c r="G3" s="29"/>
       <c r="H3" s="1"/>
@@ -14611,13 +14594,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="276" t="s">
+      <c r="A4" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="278"/>
+      <c r="B4" s="278"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="279"/>
       <c r="F4" s="139"/>
       <c r="G4" s="29"/>
       <c r="I4" s="1"/>
@@ -14722,7 +14705,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="138">
-        <v>531640.34999999963</v>
+        <v>546640.34999999963</v>
       </c>
       <c r="F7" s="139"/>
       <c r="G7" s="15" t="s">
@@ -14825,7 +14808,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="121">
-        <v>993695</v>
+        <v>978695</v>
       </c>
       <c r="F10" s="139"/>
       <c r="G10" s="28"/>
@@ -14973,7 +14956,7 @@
     </row>
     <row r="15" spans="1:28" ht="21.75">
       <c r="A15" s="213" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="214">
         <v>1000000</v>
@@ -15117,13 +15100,13 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="270" t="s">
+      <c r="A20" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="271"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="272"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="273"/>
       <c r="F20" s="139"/>
       <c r="G20" s="124"/>
       <c r="H20" s="1"/>
@@ -15185,7 +15168,7 @@
     </row>
     <row r="22" spans="1:28" ht="23.25">
       <c r="A22" s="197" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="198">
         <v>81770</v>
@@ -15320,13 +15303,13 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A26" s="279" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="279"/>
-      <c r="C26" s="279"/>
-      <c r="D26" s="279"/>
-      <c r="E26" s="279"/>
+      <c r="A26" s="264" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="264"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="264"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
